--- a/jpcore-r4/feature/swg3-practionerRole対応/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practionerRole対応/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -44,7 +44,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core AllergyIntolerance ValueSet</t>
+    <t>JP Core AllergyIntolerance Codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T13:52:43+00:00</t>
+    <t>2022-08-03T11:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,7 +83,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>アレルギー・不耐症のコード</t>
+    <t>アレルギー・不耐症に関連するアレルゲンコード</t>
   </si>
   <si>
     <t>Purpose</t>
